--- a/data/trans_dic/P37A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37A-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que con las horas que duerme, descansa lo suficiente</t>
+          <t>Población que con las horas que duerme, descansa lo suficiente (tasa de respuesta: 99,22%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>78,22%</t>
+          <t>83,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>79,18%</t>
+          <t>68,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>84,86%</t>
+          <t>79,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>71,9%</t>
+          <t>75,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>73,0%</t>
+          <t>65,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>70,61%</t>
+          <t>78,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,93%</t>
+          <t>72,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>76,14%</t>
+          <t>68,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>78,34%</t>
+          <t>73,61%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>73,94%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>76,26%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>71,83%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>66,82; 87,86</t>
+          <t>63,95; 93,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,84; 88,99</t>
+          <t>49,29; 85,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72,49; 92,39</t>
+          <t>62,54; 92,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60,1; 81,77</t>
+          <t>56,63; 89,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,04; 82,86</t>
+          <t>51,15; 79,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,77; 81,46</t>
+          <t>67,01; 90,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,21; 81,16</t>
+          <t>57,96; 84,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>67,56; 82,7</t>
+          <t>52,59; 80,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>69,25; 84,6</t>
+          <t>62,35; 83,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>62,15; 83,02</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>65,96; 84,98</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>60,43; 81,99</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83,78%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>71,0%</t>
+          <t>66,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,5%</t>
+          <t>83,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>62,3%</t>
+          <t>70,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,66%</t>
+          <t>57,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>52,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,1%</t>
+          <t>43,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>64,74%</t>
+          <t>78,92%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>72,07%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>60,25%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>66,93%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,6; 95,63</t>
+          <t>74,13; 95,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,36; 90,58</t>
+          <t>71,17; 94,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,35; 82,81</t>
+          <t>37,74; 83,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,19; 79,75</t>
+          <t>65,83; 93,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,36; 71,51</t>
+          <t>56,62; 80,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,77; 67,05</t>
+          <t>44,34; 70,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>73,29; 86,42</t>
+          <t>38,88; 66,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,66; 80,17</t>
+          <t>28,7; 57,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,89; 73,24</t>
+          <t>68,89; 86,27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>62,06; 81,69</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>47,52; 74,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54,52; 80,94</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>65,28%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73,12%</t>
+          <t>69,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71,56%</t>
+          <t>74,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69,99%</t>
+          <t>63,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>64,28%</t>
+          <t>70,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>61,92%</t>
+          <t>62,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>71,79%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>68,45%</t>
+          <t>61,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66,66%</t>
+          <t>68,52%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>65,34%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>66,55%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>62,67%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>59,88; 82,62</t>
+          <t>52,69; 76,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,76; 81,93</t>
+          <t>58,16; 80,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>54,69; 81,21</t>
+          <t>61,75; 84,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,53; 76,91</t>
+          <t>49,31; 75,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,55; 71,93</t>
+          <t>60,96; 78,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,16; 69,63</t>
+          <t>52,58; 71,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>64,79; 77,69</t>
+          <t>50,98; 70,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,85; 74,54</t>
+          <t>51,88; 71,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,37; 72,96</t>
+          <t>61,8; 75,75</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>57,86; 72,34</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>58,9; 73,4</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>54,41; 70,82</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>76,69%</t>
+          <t>74,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>72,12%</t>
+          <t>69,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77,92%</t>
+          <t>72,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>66,39%</t>
+          <t>71,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>60,17%</t>
+          <t>65,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,34%</t>
+          <t>58,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>64,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>65,57%</t>
+          <t>56,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>69,04%</t>
+          <t>69,23%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>63,99%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>68,05%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>63,89%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,8; 83,96</t>
+          <t>62,6; 82,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,58; 79,29</t>
+          <t>57,92; 78,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,54; 84,67</t>
+          <t>62,08; 81,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,8; 73,02</t>
+          <t>60,33; 80,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,1; 67,92</t>
+          <t>56,26; 74,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,82; 68,63</t>
+          <t>49,1; 69,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,4; 75,73</t>
+          <t>54,08; 73,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,87; 70,95</t>
+          <t>46,42; 66,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,52; 73,94</t>
+          <t>62,66; 75,87</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>56,14; 70,47</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>60,93; 74,79</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>57,04; 71,26</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>78,51%</t>
+          <t>78,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>85,61%</t>
+          <t>84,07%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>85,76%</t>
+          <t>83,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>76,95%</t>
+          <t>84,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>77,89%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>78,89%</t>
+          <t>83,73%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>77,77%</t>
+          <t>85,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>72,93%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>80,85%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>83,93%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>84,01%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>79,08%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>63,95; 85,74</t>
+          <t>59,49; 88,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,37; 91,31</t>
+          <t>73,46; 92,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,6; 91,24</t>
+          <t>73,23; 91,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67,3; 84,51</t>
+          <t>73,16; 91,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>68,47; 85,06</t>
+          <t>72,63; 92,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>70,92; 86,29</t>
+          <t>73,52; 92,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>70,38; 83,08</t>
+          <t>74,05; 92,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,54; 86,77</t>
+          <t>59,74; 83,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>76,85; 87,43</t>
+          <t>67,93; 88,05</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>76,46; 90,28</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>76,2; 89,95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>71,39; 85,88</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>89,01%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>86,08%</t>
+          <t>85,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>79,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>75,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>89,06%</t>
+          <t>78,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>89,96%</t>
+          <t>88,82%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>86,82%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>84,09%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>82,84%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,85; 97,17</t>
+          <t>78,56; 97,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>85,39; 97,47</t>
+          <t>84,11; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,19; 100,0</t>
+          <t>83,43; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>72,79; 91,85</t>
+          <t>76,8; 96,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>78,57; 92,31</t>
+          <t>73,55; 93,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>75,29; 92,72</t>
+          <t>67,1; 90,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,91; 92,59</t>
+          <t>57,3; 87,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83,86; 93,35</t>
+          <t>47,93; 93,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>83,82; 93,65</t>
+          <t>79,7; 94,05</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>77,31; 92,82</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>74,31; 92,25</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>62,71; 91,88</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>77,77%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>80,24%</t>
+          <t>77,06%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>72,8%</t>
+          <t>77,54%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>69,37%</t>
+          <t>72,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>68,56%</t>
+          <t>67,66%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>76,56%</t>
+          <t>66,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>74,42%</t>
+          <t>63,63%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>75,48%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>72,5%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>71,82%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>70,45%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>76,33; 84,09</t>
+          <t>73,12; 83,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>76,19; 83,44</t>
+          <t>72,5; 82,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74,7; 84,18</t>
+          <t>69,37; 82,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>69,05; 76,38</t>
+          <t>72,13; 82,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,77; 73,21</t>
+          <t>67,22; 76,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>64,51; 73,01</t>
+          <t>62,51; 72,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>73,96; 79,13</t>
+          <t>62,07; 71,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>71,62; 76,91</t>
+          <t>56,82; 68,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>70,72; 77,14</t>
+          <t>71,74; 78,44</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>69,01; 76,24</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>67,3; 75,46</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>66,19; 74,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que con las horas que duerme, descansa lo suficiente (tasa de respuesta: 99,22%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>88902</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>72668</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>98589</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>104747</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>86262</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>94298</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>87485</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>96061</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>175164</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>166966</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>186074</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>200807</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>68442; 99987</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>52108; 89991</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>77298; 114563</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>78849; 123907</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>66982; 103964</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>80473; 108301</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>69789; 102287</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>73807; 113503</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>148372; 198002</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>140325; 187449</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>160950; 207357</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>168947; 229220</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>146940</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>121450</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>102994</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>189230</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>114634</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>71887</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63510</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>67917</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>261573</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>193336</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>166505</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>257147</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>125084; 160465</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>102053; 135111</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>58220; 128499</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>149892; 212415</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>92119; 131612</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>55363; 88422</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>47467; 81203</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>44913; 90520</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>228330; 285933</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>166473; 219121</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>131323; 205999</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>209454; 310944</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>103560</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>93995</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>100923</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>112005</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>184426</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>129381</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>118432</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>142716</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>287986</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>223375</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>219354</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>254720</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>83591; 121906</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>78142; 107945</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>83354; 114583</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>86457; 132245</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>159494; 205265</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>109117; 148376</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>99232; 136949</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>119888; 164993</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>259736; 318381</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>197807; 247326</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>194153; 241959</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>221156; 287845</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>135060</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>112460</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>110081</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>138078</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>138050</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>108491</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>108939</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>114815</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>273110</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>220951</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>219020</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>252893</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>114141; 150411</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>93375; 127195</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>94693; 124122</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>116774; 156476</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>119374; 157915</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>90381; 127213</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>91554; 124855</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>93896; 135091</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>247187; 299306</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>193842; 243334</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>196097; 240698</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>225792; 282061</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>121190</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>107614</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>100570</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>130561</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>94754</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>74847</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>79088</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>97862</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>215944</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>182461</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>179658</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>228423</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>92312; 137071</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>94024; 118194</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>88738; 110545</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>113140; 141678</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>81293; 103522</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>65716; 82795</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>68626; 85952</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>80168; 111503</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>181431; 235158</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>166216; 196255</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>162963; 192366</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>206210; 248056</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>100920</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>82854</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>85398</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>122683</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>115993</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>80363</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>83410</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>160216</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>216912</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>163217</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>168808</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>282900</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>85876; 106835</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>73455; 87335</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>75201; 90133</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>105856; 132667</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>99217; 126148</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>67543; 90956</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>63373; 96492</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>97609; 189705</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>194640; 229688</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>145335; 174491</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>149177; 185178</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>214145; 313740</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>498.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>499.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>696572</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>591040</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>598554</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>797303</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>734118</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>559267</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>540863</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>679586</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1430690</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1150308</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1139418</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1476889</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>644380; 732969</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>551015; 626181</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>538825; 637652</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>741749; 851093</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>681832; 774556</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>516725; 595495</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>502557; 579302</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>606850; 731206</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1359764; 1486932</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1094862; 1209565</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1067608; 1197127</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1387641; 1561138</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>